--- a/relacao_itens.xlsx
+++ b/relacao_itens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Item Número</t>
   </si>
@@ -31,10 +31,133 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>CANETA ALTA ROTAÇÃO</t>
-  </si>
-  <si>
-    <t>229.0</t>
+    <t>CEMIPLIMABE</t>
+  </si>
+  <si>
+    <t>EVOLOCUMABE</t>
+  </si>
+  <si>
+    <t>LENVATINIBE</t>
+  </si>
+  <si>
+    <t>CLADRIBINA</t>
+  </si>
+  <si>
+    <t>LEVETIRACETAM</t>
+  </si>
+  <si>
+    <t>SIROLIMO</t>
+  </si>
+  <si>
+    <t>RISDIPLAM</t>
+  </si>
+  <si>
+    <t>SELEXIPAGUE</t>
+  </si>
+  <si>
+    <t>POLATUZUMABE VEDOTINA</t>
+  </si>
+  <si>
+    <t>CLORIDRATO DE BENDAMUSTINA</t>
+  </si>
+  <si>
+    <t>IBRUTINIBE</t>
+  </si>
+  <si>
+    <t>CRIZOTINIBE</t>
+  </si>
+  <si>
+    <t>APIXABANA</t>
+  </si>
+  <si>
+    <t>BECLOMETASONA</t>
+  </si>
+  <si>
+    <t>FOLINATO DE CÁLCIO</t>
+  </si>
+  <si>
+    <t>OLAPARIBE</t>
+  </si>
+  <si>
+    <t>PRAMIXEPOL</t>
+  </si>
+  <si>
+    <t>USTEQUINUMABE</t>
+  </si>
+  <si>
+    <t>CLORETO DE RADIO</t>
+  </si>
+  <si>
+    <t>EXTRATO DE CÂNHAMO</t>
+  </si>
+  <si>
+    <t>ANIFROLUMABE</t>
+  </si>
+  <si>
+    <t>DASATINIBE</t>
+  </si>
+  <si>
+    <t>MAVACANTENO</t>
+  </si>
+  <si>
+    <t>LETERMOVIR</t>
+  </si>
+  <si>
+    <t>POSACONAZOL</t>
+  </si>
+  <si>
+    <t>PEMETREXEDE</t>
+  </si>
+  <si>
+    <t>BEVACIZUMABE</t>
+  </si>
+  <si>
+    <t>CICLOFOSFAMIDA</t>
+  </si>
+  <si>
+    <t>DEFERASIROX</t>
+  </si>
+  <si>
+    <t>DEGARELIX</t>
+  </si>
+  <si>
+    <t>DESMOPRESSINA</t>
+  </si>
+  <si>
+    <t>METOTREXATO</t>
+  </si>
+  <si>
+    <t>NUSINERSENA</t>
+  </si>
+  <si>
+    <t>PEGASPARGASE</t>
+  </si>
+  <si>
+    <t>PLERIXAFOR</t>
+  </si>
+  <si>
+    <t>ROMOSOZUMABE</t>
+  </si>
+  <si>
+    <t>TERIPARATIDA</t>
+  </si>
+  <si>
+    <t>TRETINOÍNA</t>
+  </si>
+  <si>
+    <t>TRIÓXIDO</t>
+  </si>
+  <si>
+    <t>VENETOCLAX</t>
+  </si>
+  <si>
+    <t>IMUNOGLOBULINA</t>
+  </si>
+  <si>
+    <t>CARBOPLATINA</t>
+  </si>
+  <si>
+    <t>HIALURONATO DE SÓDIO</t>
   </si>
 </sst>
 </file>
@@ -392,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,19 +540,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
+        <v>737</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>22110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2211</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2948</v>
+      </c>
+      <c r="D4">
+        <v>2.95</v>
+      </c>
+      <c r="E4">
+        <v>8696.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1474</v>
+      </c>
+      <c r="D5">
+        <v>5.99</v>
+      </c>
+      <c r="E5">
+        <v>8829.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3685</v>
+      </c>
+      <c r="D6">
+        <v>4.2</v>
+      </c>
+      <c r="E6">
+        <v>15477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>737</v>
+      </c>
+      <c r="D7">
+        <v>1.52</v>
+      </c>
+      <c r="E7">
+        <v>1120.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C8">
+        <v>737</v>
+      </c>
+      <c r="D8">
+        <v>3.65</v>
+      </c>
+      <c r="E8">
+        <v>2690.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>3685</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3685</v>
+      </c>
+      <c r="D10">
+        <v>1.6</v>
+      </c>
+      <c r="E10">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1474</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>2948</v>
+      </c>
+      <c r="D12">
+        <v>10.75</v>
+      </c>
+      <c r="E12">
+        <v>31691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>737</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1474</v>
+      </c>
+      <c r="D14">
+        <v>4.5</v>
+      </c>
+      <c r="E14">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2948</v>
+      </c>
+      <c r="D15">
+        <v>4.4</v>
+      </c>
+      <c r="E15">
+        <v>12971.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1474</v>
+      </c>
+      <c r="D16">
+        <v>6.19</v>
+      </c>
+      <c r="E16">
+        <v>9124.060000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>2948</v>
+      </c>
+      <c r="D17">
+        <v>3.1</v>
+      </c>
+      <c r="E17">
+        <v>9138.800000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1474</v>
+      </c>
+      <c r="D18">
+        <v>4.66</v>
+      </c>
+      <c r="E18">
+        <v>6868.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>2948</v>
+      </c>
+      <c r="D19">
+        <v>1.94</v>
+      </c>
+      <c r="E19">
+        <v>5719.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>737</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>737</v>
+      </c>
+      <c r="D21">
+        <v>6.5</v>
+      </c>
+      <c r="E21">
+        <v>4790.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>737</v>
+      </c>
+      <c r="D22">
+        <v>6.09</v>
+      </c>
+      <c r="E22">
+        <v>4488.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>2948</v>
+      </c>
+      <c r="D23">
+        <v>1.03</v>
+      </c>
+      <c r="E23">
+        <v>3036.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1474</v>
+      </c>
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>2290</v>
+      <c r="E24">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1474</v>
+      </c>
+      <c r="D25">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1474</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26">
+        <v>26532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1474</v>
+      </c>
+      <c r="D27">
+        <v>1.69</v>
+      </c>
+      <c r="E27">
+        <v>2491.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>163</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>489</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>652</v>
+      </c>
+      <c r="D30">
+        <v>2.95</v>
+      </c>
+      <c r="E30">
+        <v>1923.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <v>326</v>
+      </c>
+      <c r="D31">
+        <v>5.99</v>
+      </c>
+      <c r="E31">
+        <v>1952.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>815</v>
+      </c>
+      <c r="D32">
+        <v>4.2</v>
+      </c>
+      <c r="E32">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>163</v>
+      </c>
+      <c r="D33">
+        <v>1.52</v>
+      </c>
+      <c r="E33">
+        <v>247.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <v>3.65</v>
+      </c>
+      <c r="E34">
+        <v>594.9499999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>815</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>815</v>
+      </c>
+      <c r="D36">
+        <v>1.6</v>
+      </c>
+      <c r="E36">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <v>326</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <v>652</v>
+      </c>
+      <c r="D38">
+        <v>10.75</v>
+      </c>
+      <c r="E38">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <v>163</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>326</v>
+      </c>
+      <c r="D40">
+        <v>4.5</v>
+      </c>
+      <c r="E40">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>652</v>
+      </c>
+      <c r="D41">
+        <v>4.4</v>
+      </c>
+      <c r="E41">
+        <v>2868.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>326</v>
+      </c>
+      <c r="D42">
+        <v>6.19</v>
+      </c>
+      <c r="E42">
+        <v>2017.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>652</v>
+      </c>
+      <c r="D43">
+        <v>3.1</v>
+      </c>
+      <c r="E43">
+        <v>2021.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>326</v>
+      </c>
+      <c r="D44">
+        <v>4.66</v>
+      </c>
+      <c r="E44">
+        <v>1519.16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>652</v>
+      </c>
+      <c r="D45">
+        <v>1.94</v>
+      </c>
+      <c r="E45">
+        <v>1264.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>163</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <v>163</v>
+      </c>
+      <c r="D47">
+        <v>6.5</v>
+      </c>
+      <c r="E47">
+        <v>1059.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <v>163</v>
+      </c>
+      <c r="D48">
+        <v>6.09</v>
+      </c>
+      <c r="E48">
+        <v>992.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <v>652</v>
+      </c>
+      <c r="D49">
+        <v>1.03</v>
+      </c>
+      <c r="E49">
+        <v>671.5600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <v>326</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+      <c r="E50">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51">
+        <v>326</v>
+      </c>
+      <c r="D51">
+        <v>4.5</v>
+      </c>
+      <c r="E51">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52">
+        <v>326</v>
+      </c>
+      <c r="D52">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>5868</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53">
+        <v>326</v>
+      </c>
+      <c r="D53">
+        <v>1.69</v>
+      </c>
+      <c r="E53">
+        <v>550.9399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/relacao_itens.xlsx
+++ b/relacao_itens.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Item Número</t>
   </si>
@@ -31,10 +31,58 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>CANETA ALTA ROTAÇÃO</t>
-  </si>
-  <si>
-    <t>229.0</t>
+    <t>TINTAANTIFERRUGE M</t>
+  </si>
+  <si>
+    <t>TINTA ESMALTE</t>
+  </si>
+  <si>
+    <t>TINTA ACRÍLICA</t>
+  </si>
+  <si>
+    <t>TINTA CONCENTRADA</t>
+  </si>
+  <si>
+    <t>DILUENTE</t>
+  </si>
+  <si>
+    <t>COLA</t>
+  </si>
+  <si>
+    <t>MASSA CORRIDA</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>127.5</t>
+  </si>
+  <si>
+    <t>308.0</t>
+  </si>
+  <si>
+    <t>504.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>594.0</t>
+  </si>
+  <si>
+    <t>118.0</t>
+  </si>
+  <si>
+    <t>112.0</t>
+  </si>
+  <si>
+    <t>451.04</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>172.0</t>
   </si>
 </sst>
 </file>
@@ -392,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,19 +465,189 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10080</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>6380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>95</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>2290</v>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2255.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2580</v>
       </c>
     </row>
   </sheetData>

--- a/relacao_itens.xlsx
+++ b/relacao_itens.xlsx
@@ -31,10 +31,10 @@
     <t>Valor Total</t>
   </si>
   <si>
-    <t>TATAME</t>
-  </si>
-  <si>
-    <t>77.0</t>
+    <t>CANETA ALTA ROTAÇÃO</t>
+  </si>
+  <si>
+    <t>229.0</t>
   </si>
 </sst>
 </file>
@@ -417,19 +417,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>8701</v>
+        <v>2290</v>
       </c>
     </row>
   </sheetData>
